--- a/app/Licenciatura_em_Geografia.xlsx
+++ b/app/Licenciatura_em_Geografia.xlsx
@@ -33,30 +33,29 @@
     <sheet name="20152537" sheetId="23" r:id="rId26"/>
     <sheet name="20152564" sheetId="24" r:id="rId27"/>
     <sheet name="20152561" sheetId="25" r:id="rId28"/>
-    <sheet name="20154448" sheetId="26" r:id="rId29"/>
-    <sheet name="20152567" sheetId="27" r:id="rId30"/>
-    <sheet name="20152583" sheetId="28" r:id="rId31"/>
-    <sheet name="20152538" sheetId="29" r:id="rId32"/>
-    <sheet name="20152547" sheetId="30" r:id="rId33"/>
-    <sheet name="20152582" sheetId="31" r:id="rId34"/>
-    <sheet name="20152568" sheetId="32" r:id="rId35"/>
-    <sheet name="20152563" sheetId="33" r:id="rId36"/>
-    <sheet name="20152571" sheetId="34" r:id="rId37"/>
-    <sheet name="20152573" sheetId="35" r:id="rId38"/>
-    <sheet name="20152560" sheetId="36" r:id="rId39"/>
-    <sheet name="20152549" sheetId="37" r:id="rId40"/>
-    <sheet name="20152569" sheetId="38" r:id="rId41"/>
-    <sheet name="20152578" sheetId="39" r:id="rId42"/>
-    <sheet name="20152581" sheetId="40" r:id="rId43"/>
-    <sheet name="20152559" sheetId="41" r:id="rId44"/>
-    <sheet name="20152580" sheetId="42" r:id="rId45"/>
-    <sheet name="20152584" sheetId="43" r:id="rId46"/>
-    <sheet name="20152574" sheetId="44" r:id="rId47"/>
-    <sheet name="20152576" sheetId="45" r:id="rId48"/>
-    <sheet name="20152552" sheetId="46" r:id="rId49"/>
-    <sheet name="20152566" sheetId="47" r:id="rId50"/>
-    <sheet name="Sheet2" sheetId="48" r:id="rId51"/>
-    <sheet name="Sheet3" sheetId="49" r:id="rId52"/>
+    <sheet name="20152567" sheetId="26" r:id="rId29"/>
+    <sheet name="20152583" sheetId="27" r:id="rId30"/>
+    <sheet name="20152538" sheetId="28" r:id="rId31"/>
+    <sheet name="20152547" sheetId="29" r:id="rId32"/>
+    <sheet name="20152582" sheetId="30" r:id="rId33"/>
+    <sheet name="20152568" sheetId="31" r:id="rId34"/>
+    <sheet name="20152563" sheetId="32" r:id="rId35"/>
+    <sheet name="20152571" sheetId="33" r:id="rId36"/>
+    <sheet name="20152573" sheetId="34" r:id="rId37"/>
+    <sheet name="20152560" sheetId="35" r:id="rId38"/>
+    <sheet name="20152549" sheetId="36" r:id="rId39"/>
+    <sheet name="20152569" sheetId="37" r:id="rId40"/>
+    <sheet name="20152578" sheetId="38" r:id="rId41"/>
+    <sheet name="20152581" sheetId="39" r:id="rId42"/>
+    <sheet name="20152559" sheetId="40" r:id="rId43"/>
+    <sheet name="20152580" sheetId="41" r:id="rId44"/>
+    <sheet name="20152584" sheetId="42" r:id="rId45"/>
+    <sheet name="20152574" sheetId="43" r:id="rId46"/>
+    <sheet name="20152576" sheetId="44" r:id="rId47"/>
+    <sheet name="20152552" sheetId="45" r:id="rId48"/>
+    <sheet name="20152566" sheetId="46" r:id="rId49"/>
+    <sheet name="Sheet2" sheetId="47" r:id="rId50"/>
+    <sheet name="Sheet3" sheetId="48" r:id="rId51"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="378">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -213,9 +212,6 @@
     <t>Alda Bernardo Zandamela</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -324,9 +320,6 @@
     <t>Maria Laice Minzo</t>
   </si>
   <si>
-    <t>Distrito de Vilanculos</t>
-  </si>
-  <si>
     <t>0813024181141I</t>
   </si>
   <si>
@@ -351,9 +344,6 @@
     <t>Victoria Vicente Tlhemo</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110500124562B</t>
   </si>
   <si>
@@ -378,9 +368,6 @@
     <t>Lizete F. Vilanculos</t>
   </si>
   <si>
-    <t>Distrito de Magude</t>
-  </si>
-  <si>
     <t>Talao de Bilhete de Identificacao</t>
   </si>
   <si>
@@ -405,9 +392,6 @@
     <t>Veronica Alberto Zunguza</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110100832260Q</t>
   </si>
   <si>
@@ -483,9 +467,6 @@
     <t>VitÓria Ananias Langa</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>+258849100525</t>
   </si>
   <si>
@@ -546,9 +527,6 @@
     <t>Carolina Macucule</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>Casado</t>
   </si>
   <si>
@@ -639,9 +617,6 @@
     <t xml:space="preserve">Celeste Mazive </t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t xml:space="preserve">110500633406M </t>
   </si>
   <si>
@@ -663,9 +638,6 @@
     <t>VitÓria Amone</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110100553769A</t>
   </si>
   <si>
@@ -759,12 +731,6 @@
     <t>+258825204811</t>
   </si>
   <si>
-    <t>Matsimbe</t>
-  </si>
-  <si>
-    <t>Horácio</t>
-  </si>
-  <si>
     <t>Massango</t>
   </si>
   <si>
@@ -885,9 +851,6 @@
     <t>Helena Fernando Macheve</t>
   </si>
   <si>
-    <t>Distrito de Manhiça</t>
-  </si>
-  <si>
     <t>110100481186F</t>
   </si>
   <si>
@@ -933,9 +896,6 @@
     <t>Aua Abdulcadre</t>
   </si>
   <si>
-    <t>Cidade de Nampula</t>
-  </si>
-  <si>
     <t>020101584530S</t>
   </si>
   <si>
@@ -960,9 +920,6 @@
     <t>Isabel JosÉ</t>
   </si>
   <si>
-    <t>Distrito de Manica</t>
-  </si>
-  <si>
     <t>060104791220J</t>
   </si>
   <si>
@@ -1098,9 +1055,6 @@
     <t>Flora Joaquim</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>070102276069B</t>
   </si>
   <si>
@@ -1144,9 +1098,6 @@
   </si>
   <si>
     <t>Emilia Pedro Barraca</t>
-  </si>
-  <si>
-    <t>Distrito de Homoine</t>
   </si>
   <si>
     <t>080404471982M</t>
@@ -2505,7 +2456,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2521,7 +2472,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2537,7 +2488,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2553,7 +2504,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2569,7 +2520,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2584,9 +2535,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>95</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2594,7 +2543,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2605,7 +2554,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2614,7 +2563,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2626,7 +2575,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2634,7 +2583,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2730,7 +2679,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2773,7 +2722,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3100,7 +3049,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3116,7 +3065,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3307,7 +3256,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3673,7 +3622,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3689,7 +3638,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3705,7 +3654,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3721,7 +3670,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3737,7 +3686,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3752,9 +3701,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3762,7 +3709,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3773,7 +3720,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3782,7 +3729,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3794,7 +3741,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3802,7 +3749,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3898,7 +3845,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3941,7 +3888,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4268,7 +4215,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4284,7 +4231,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4300,7 +4247,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4316,7 +4263,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4332,7 +4279,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4347,9 +4294,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>139</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4357,7 +4302,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4368,7 +4313,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4377,7 +4322,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4389,7 +4334,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4493,7 +4438,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4536,7 +4481,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4863,7 +4808,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4879,7 +4824,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4895,7 +4840,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4911,7 +4856,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4927,7 +4872,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4942,9 +4887,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4952,7 +4895,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4963,7 +4906,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4972,7 +4915,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4984,7 +4927,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5088,7 +5031,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5131,7 +5074,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5458,7 +5401,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5474,7 +5417,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5490,7 +5433,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5506,7 +5449,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5522,7 +5465,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5537,9 +5480,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>95</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5547,7 +5488,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5558,7 +5499,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5567,7 +5508,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5579,7 +5520,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5587,7 +5528,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5683,7 +5624,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5726,7 +5667,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6053,7 +5994,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6069,7 +6010,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6085,7 +6026,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6101,7 +6042,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6117,7 +6058,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6132,9 +6073,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>160</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6142,7 +6081,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6153,7 +6092,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6162,7 +6101,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6174,7 +6113,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6182,7 +6121,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6278,7 +6217,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6321,7 +6260,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6648,7 +6587,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6664,7 +6603,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6680,7 +6619,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6696,7 +6635,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6712,7 +6651,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6727,9 +6666,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6737,7 +6674,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6748,7 +6685,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6757,7 +6694,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6769,7 +6706,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6873,7 +6810,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6916,7 +6853,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7243,7 +7180,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7259,7 +7196,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7275,7 +7212,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7291,7 +7228,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7307,7 +7244,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7322,9 +7259,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>160</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7332,7 +7267,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7343,7 +7278,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7352,7 +7287,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7364,7 +7299,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7372,7 +7307,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7468,7 +7403,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7511,7 +7446,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7838,7 +7773,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7854,7 +7789,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7870,7 +7805,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7886,7 +7821,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7902,7 +7837,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7917,9 +7852,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7927,7 +7860,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7938,7 +7871,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7947,7 +7880,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7959,7 +7892,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7967,7 +7900,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8063,7 +7996,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8106,7 +8039,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8512,9 +8445,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8522,7 +8453,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8533,7 +8464,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8542,7 +8473,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8554,7 +8485,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8562,7 +8493,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8658,7 +8589,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8701,7 +8632,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9028,7 +8959,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9044,7 +8975,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9060,7 +8991,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9076,7 +9007,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9092,7 +9023,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9107,9 +9038,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>191</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9117,7 +9046,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9128,7 +9057,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9137,7 +9066,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9149,7 +9078,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9157,7 +9086,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9253,7 +9182,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9296,7 +9225,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9623,7 +9552,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9639,7 +9568,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9655,7 +9584,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9671,7 +9600,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9687,7 +9616,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9702,9 +9631,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>199</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9712,7 +9639,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9723,7 +9650,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9732,7 +9659,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9744,7 +9671,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9752,7 +9679,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9848,7 +9775,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9891,7 +9818,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10218,7 +10145,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10234,7 +10161,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10250,7 +10177,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10266,7 +10193,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10282,7 +10209,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10297,9 +10224,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>95</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10307,7 +10232,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10318,7 +10243,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10327,7 +10252,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10339,7 +10264,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10347,7 +10272,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10443,7 +10368,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10486,7 +10411,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10813,7 +10738,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10829,7 +10754,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10845,7 +10770,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10861,7 +10786,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10877,7 +10802,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10892,9 +10817,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>199</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10902,7 +10825,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10913,7 +10836,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10922,7 +10845,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10934,7 +10857,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10942,7 +10865,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11038,7 +10961,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11081,7 +11004,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11408,7 +11331,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11424,7 +11347,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11440,7 +11363,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11456,7 +11379,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11472,7 +11395,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11487,9 +11410,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11497,7 +11418,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11508,7 +11429,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11517,7 +11438,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11529,7 +11450,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11537,7 +11458,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11633,7 +11554,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11676,7 +11597,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12003,7 +11924,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12019,7 +11940,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12035,7 +11956,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12051,7 +11972,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12067,7 +11988,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12082,9 +12003,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>199</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12092,7 +12011,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12103,7 +12022,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12112,7 +12031,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12124,7 +12043,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12132,7 +12051,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12228,7 +12147,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12271,7 +12190,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12522,7 +12441,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -12572,7 +12493,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154448</v>
+        <v>20152567</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12596,7 +12517,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12612,7 +12533,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12627,7 +12548,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>224</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -12641,7 +12564,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>225</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -12655,7 +12580,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>226</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -12676,7 +12603,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -12685,14 +12614,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -12702,13 +12635,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>227</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -12803,7 +12740,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>126</v>
+        <v>228</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12829,7 +12766,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2012</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -12843,7 +12782,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>157</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -13145,7 +13086,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152567</v>
+        <v>20152583</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13169,7 +13110,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13185,7 +13126,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13201,7 +13142,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13217,7 +13158,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13233,7 +13174,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13248,9 +13189,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>160</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13258,7 +13197,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13269,7 +13208,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13278,7 +13217,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13290,7 +13229,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13298,7 +13237,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13394,7 +13333,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13421,7 +13360,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13437,7 +13376,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13740,7 +13679,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152583</v>
+        <v>20152538</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13764,7 +13703,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13780,7 +13719,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13796,7 +13735,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13812,7 +13751,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13828,7 +13767,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13843,9 +13782,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>199</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13853,7 +13790,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13864,7 +13801,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13873,7 +13810,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13885,7 +13822,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13893,7 +13830,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13989,7 +13926,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14016,7 +13953,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14032,7 +13969,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>247</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14335,7 +14272,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152538</v>
+        <v>20152547</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14359,7 +14296,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14375,7 +14312,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14391,7 +14328,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>250</v>
+        <v>166</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14407,7 +14344,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14423,7 +14360,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14438,9 +14375,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>199</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14448,7 +14383,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14459,7 +14394,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14468,7 +14403,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14480,7 +14415,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14488,7 +14423,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14584,7 +14519,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14611,7 +14546,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14627,7 +14562,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14970,7 +14905,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14986,7 +14921,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15002,7 +14937,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15018,7 +14953,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15033,9 +14968,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15043,7 +14976,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15054,7 +14987,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15063,7 +14996,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15075,7 +15008,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15083,7 +15016,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15179,7 +15112,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15222,7 +15155,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15525,7 +15458,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152547</v>
+        <v>20152582</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15549,7 +15482,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15565,7 +15498,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15581,7 +15514,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15597,7 +15530,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15613,7 +15546,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15628,9 +15561,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>95</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15638,7 +15569,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15649,7 +15580,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15658,7 +15589,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15670,7 +15601,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15678,7 +15609,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15774,7 +15705,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15801,7 +15732,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15817,7 +15748,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16120,7 +16051,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152582</v>
+        <v>20152568</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16144,7 +16075,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16160,7 +16091,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16176,7 +16107,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16192,7 +16123,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16208,7 +16139,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16223,9 +16154,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>95</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16233,7 +16162,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16244,7 +16173,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16253,7 +16182,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16265,7 +16194,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16273,7 +16202,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16369,7 +16298,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16412,7 +16341,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>63</v>
+        <v>264</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16715,7 +16644,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152568</v>
+        <v>20152563</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16739,7 +16668,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16755,7 +16684,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16771,7 +16700,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16787,7 +16716,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16803,7 +16732,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16818,9 +16747,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>273</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16828,7 +16755,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16839,7 +16766,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16848,7 +16775,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16860,7 +16787,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16868,7 +16795,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16964,7 +16891,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17007,7 +16934,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>276</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17310,7 +17237,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152563</v>
+        <v>20152571</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17334,7 +17261,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17350,7 +17277,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17366,7 +17293,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17382,7 +17309,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17398,7 +17325,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17413,9 +17340,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17423,7 +17348,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17434,7 +17359,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17443,7 +17368,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17455,7 +17380,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17463,7 +17388,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17559,7 +17484,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17602,7 +17527,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>279</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17905,7 +17830,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152571</v>
+        <v>20152573</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17929,7 +17854,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17945,7 +17870,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17961,7 +17886,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17977,7 +17902,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17993,7 +17918,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18008,9 +17933,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>289</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18018,7 +17941,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18029,7 +17952,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18038,7 +17961,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18050,7 +17973,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18058,7 +17981,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18154,7 +18077,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18181,7 +18104,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -18197,7 +18120,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18500,7 +18423,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152573</v>
+        <v>20152560</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18524,7 +18447,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18540,7 +18463,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18556,7 +18479,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18572,7 +18495,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18588,7 +18511,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18603,9 +18526,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>298</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18613,7 +18534,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18624,7 +18545,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18633,7 +18554,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18645,7 +18566,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18653,7 +18574,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18749,7 +18670,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18776,7 +18697,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -18792,7 +18713,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>301</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19095,7 +19016,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152560</v>
+        <v>20152549</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19119,7 +19040,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19135,7 +19056,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19151,7 +19072,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19167,7 +19088,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19183,7 +19104,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19198,9 +19119,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>199</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19208,7 +19127,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19219,7 +19138,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19228,7 +19147,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19240,7 +19159,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19248,7 +19167,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19344,7 +19263,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19387,7 +19306,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19690,7 +19609,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152549</v>
+        <v>20152569</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19714,7 +19633,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19730,7 +19649,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19746,7 +19665,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19762,7 +19681,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19778,7 +19697,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19793,9 +19712,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>199</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19803,7 +19720,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19814,7 +19731,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19823,7 +19740,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19835,7 +19752,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19843,7 +19760,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19939,7 +19856,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19966,7 +19883,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19982,7 +19899,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20285,7 +20202,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152569</v>
+        <v>20152578</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20309,7 +20226,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20325,7 +20242,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20341,7 +20258,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20357,7 +20274,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20373,7 +20290,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20388,9 +20305,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20398,7 +20313,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20409,7 +20324,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20418,7 +20333,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20430,7 +20345,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20438,7 +20353,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20534,7 +20449,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20561,7 +20476,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -20577,7 +20492,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20880,7 +20795,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152578</v>
+        <v>20152581</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20904,7 +20819,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20920,7 +20835,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20936,7 +20851,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20952,7 +20867,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20968,7 +20883,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20983,9 +20898,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20993,7 +20906,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21004,7 +20917,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21013,7 +20926,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21025,7 +20938,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>321</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21033,7 +20946,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21129,7 +21042,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21156,7 +21069,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -21172,7 +21085,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>324</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21499,7 +21412,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21515,7 +21428,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21531,7 +21444,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21547,7 +21460,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21563,7 +21476,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21578,9 +21491,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21588,7 +21499,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21599,7 +21510,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21608,7 +21519,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21620,7 +21531,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21724,7 +21635,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21767,7 +21678,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22070,7 +21981,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152581</v>
+        <v>20152559</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22094,7 +22005,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22110,7 +22021,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22126,7 +22037,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22142,7 +22053,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22158,7 +22069,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22173,9 +22084,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22183,7 +22092,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22194,7 +22103,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22203,7 +22112,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22215,7 +22124,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>335</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22223,7 +22132,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22319,7 +22228,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22346,7 +22255,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -22362,7 +22271,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22665,7 +22574,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152559</v>
+        <v>20152580</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22689,7 +22598,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22705,7 +22614,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22721,7 +22630,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22737,7 +22646,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22753,7 +22662,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22768,9 +22677,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>344</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22778,7 +22685,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22789,7 +22696,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22798,7 +22705,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22810,7 +22717,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22818,7 +22725,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22914,7 +22821,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22941,7 +22848,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -22957,7 +22864,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>347</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23260,7 +23167,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152580</v>
+        <v>20152584</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23284,7 +23191,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23300,7 +23207,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23316,7 +23223,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23332,7 +23239,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23348,7 +23255,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23363,9 +23270,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23373,7 +23278,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23384,7 +23289,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23393,7 +23298,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23405,7 +23310,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23413,7 +23318,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23509,7 +23414,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23536,7 +23441,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -23552,7 +23457,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>347</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23855,7 +23760,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152584</v>
+        <v>20152574</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23879,7 +23784,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23895,7 +23800,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23911,7 +23816,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23927,7 +23832,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23943,7 +23848,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23958,9 +23863,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>360</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23968,7 +23871,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23979,7 +23882,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23988,7 +23891,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24000,7 +23903,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24008,7 +23911,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24104,7 +24007,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24131,7 +24034,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -24147,7 +24050,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24450,7 +24353,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152574</v>
+        <v>20152576</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -24474,7 +24377,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24490,7 +24393,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24506,7 +24409,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24522,7 +24425,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24538,7 +24441,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24553,9 +24456,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24563,7 +24464,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24574,7 +24475,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24583,7 +24484,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24595,7 +24496,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24603,7 +24504,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24699,7 +24600,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24726,7 +24627,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -24742,7 +24643,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25045,7 +24946,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152576</v>
+        <v>20152552</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -25069,7 +24970,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25085,7 +24986,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25101,7 +25002,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25117,7 +25018,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25133,7 +25034,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25148,9 +25049,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>199</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25158,7 +25057,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25169,7 +25068,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25178,7 +25077,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25190,7 +25089,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25198,7 +25097,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25294,7 +25193,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25337,7 +25236,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25640,7 +25539,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20152552</v>
+        <v>20152566</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -25664,7 +25563,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25680,7 +25579,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25696,7 +25595,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25712,7 +25611,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25728,7 +25627,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25743,9 +25642,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>199</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25753,7 +25650,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25764,7 +25661,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25773,7 +25670,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25785,7 +25682,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25793,7 +25690,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25889,7 +25786,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25916,7 +25813,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -25932,7 +25829,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>379</v>
+        <v>62</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26135,601 +26032,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20152566</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>393</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2008</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -26753,7 +26055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26910,7 +26212,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26926,7 +26228,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26942,7 +26244,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26958,7 +26260,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26974,7 +26276,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26989,9 +26291,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26999,7 +26299,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27010,7 +26310,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27019,7 +26319,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27031,7 +26331,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27039,7 +26339,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27135,7 +26435,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27178,7 +26478,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -27505,7 +26805,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -27521,7 +26821,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27537,7 +26837,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27553,7 +26853,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27569,7 +26869,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27584,9 +26884,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>86</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27594,7 +26892,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27605,7 +26903,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27614,7 +26912,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27626,7 +26924,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27634,7 +26932,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27730,7 +27028,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27773,7 +27071,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28100,7 +27398,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28116,7 +27414,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28132,7 +27430,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28148,7 +27446,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28164,7 +27462,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28179,9 +27477,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>95</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28189,7 +27485,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28200,7 +27496,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28209,7 +27505,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28221,7 +27517,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28229,7 +27525,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28325,7 +27621,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28368,7 +27664,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28695,7 +27991,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28711,7 +28007,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28727,7 +28023,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28743,7 +28039,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28759,7 +28055,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28774,9 +28070,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>104</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28784,7 +28078,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28795,7 +28089,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28804,7 +28098,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28816,7 +28110,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28920,7 +28214,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28963,7 +28257,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -29290,7 +28584,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -29306,7 +28600,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -29322,7 +28616,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -29338,7 +28632,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -29354,7 +28648,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -29369,9 +28663,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>113</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -29379,7 +28671,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -29390,7 +28682,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -29399,7 +28691,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -29411,7 +28703,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -29419,7 +28711,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -29515,7 +28807,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29558,7 +28850,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
